--- a/data/long_bre/P23_5-Edad-long_bre.xlsx
+++ b/data/long_bre/P23_5-Edad-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,02%</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-26,35%</t>
+          <t>-29,42%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-21,83%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-15,43%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 7,23</t>
+          <t>-21,31; 4,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 3,73</t>
+          <t>-14,4; 5,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 52,68</t>
+          <t>-16,58; 9,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 32,13</t>
+          <t>-63,95; 26,24</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-60,49; 49,2</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-57,58; 84,85</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,8%</t>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 20,23</t>
+          <t>-4,38; 23,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 10,24</t>
+          <t>-17,83; 6,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 35,36</t>
+          <t>-11,17; 22,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 15,84</t>
+          <t>-6,07; 46,54</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-22,48; 8,76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-15,49; 45,96</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,57%</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>-17,9%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>108,02%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-9,2%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 7,02</t>
+          <t>-11,8; 7,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 17,41</t>
+          <t>0,96; 18,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-63,12; 83,62</t>
+          <t>-15,46; 10,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 308,89</t>
+          <t>-59,84; 85,19</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 393,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-60,19; 119,69</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-64,28; 76,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,64; 63,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>-17,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-17,03%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-17,86%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 25,76</t>
+          <t>-21,83; 7,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 20,15</t>
+          <t>-12,71; 5,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 51,72</t>
+          <t>-21,12; 8,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 35,37</t>
+          <t>-66,15; 61,44</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-59,16; 67,35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-69,23; 92,25</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-46,89%</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,75%</t>
+          <t>18,8%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 1,17</t>
+          <t>-3,59; 29,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 5,13</t>
+          <t>-3,72; 24,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,23; 19,06</t>
+          <t>-14,95; 19,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-69,49; 43,76</t>
+          <t>-5,07; 60,22</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 48,46</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-20,1; 38,95</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-13,27%</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-19,28%</t>
+          <t>-49,43%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-25,71%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 6,15</t>
+          <t>-25,95; 1,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 3,11</t>
+          <t>-25,46; 4,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-52,36; 42,06</t>
+          <t>-11,59; 11,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 25,22</t>
+          <t>-86,04; 19,21</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-71,55; 36,88</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-47,99; 104,67</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 15,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 14,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 27,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 25,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-2,32</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,52%</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-17,22%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-15,39%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-15,05%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 6,94</t>
+          <t>-16,28; 5,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 6,42</t>
+          <t>-9,52; 3,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 62,56</t>
+          <t>-15,57; 5,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-43,7; 41,28</t>
+          <t>-53,62; 35,14</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-48,07; 34,79</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-51,61; 34,7</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 9,43</t>
+          <t>-8,08; 14,3</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 8,83</t>
+          <t>-7,56; 11,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 76,23</t>
+          <t>-1,86; 19,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 80,72</t>
+          <t>-11,21; 25,98</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 20,05</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 38,23</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,69</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-12,88</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-28,5%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 2,04</t>
+          <t>-6,64; 8,27</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -3,62</t>
+          <t>-9,86; 7,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 3,32</t>
+          <t>-13,31; 1,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-28,93; -5,87</t>
+          <t>-36,58; 81,37</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-38,86; 54,2</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-57,51; 14,21</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>77,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,54 +1486,74 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,02; 17,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 118,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>21,58; 160,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -1297,22 +1566,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 8,53</t>
+          <t>-9,08; 8,49</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 4,58</t>
+          <t>-7,31; 8,74</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 72,84</t>
+          <t>-5,52; 10,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 41,12</t>
+          <t>-38,34; 74,41</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-34,15; 76,78</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-23,01; 74,29</t>
         </is>
       </c>
     </row>
@@ -1320,27 +1599,37 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-13,03</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-2,04%</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-9,11%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-18,34%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -1353,22 +1642,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 10,66</t>
+          <t>-14,74; 4,53</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 0,92</t>
+          <t>-22,07; -2,89</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 16,88</t>
+          <t>-6,94; 16,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 1,38</t>
+          <t>-20,76; 7,34</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-29,47; -5,19</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 37,07</t>
         </is>
       </c>
     </row>
@@ -1376,27 +1675,37 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>-6,74</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>30,97%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>84,22%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-25,2%</t>
         </is>
       </c>
     </row>
@@ -1409,54 +1718,70 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 9,87</t>
+          <t>-2,83; 12,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,05; 17,98</t>
+          <t>4,88; 17,98</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-44,3; 96,02</t>
+          <t>-21,24; 2,66</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>18,46; 195,49</t>
+          <t>-15,52; 105,46</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>26,77; 175,1</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-56,62; 14,61</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-4,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-6,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-21,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-42,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1469,50 +1794,74 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 6,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 0,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-61,22; 44,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-69,37; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>-15,18%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>109,61%</t>
         </is>
       </c>
     </row>
@@ -1525,22 +1874,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 21,93</t>
+          <t>-8,34; 8,87</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 12,32</t>
+          <t>-10,02; 3,85</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 41,74</t>
+          <t>2,42; 19,36</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 19,85</t>
+          <t>-41,77; 74,29</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-50,82; 33,75</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>14,41; 307,86</t>
         </is>
       </c>
     </row>
@@ -1548,27 +1907,37 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>-7,58</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-10,43%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-12,06%</t>
         </is>
       </c>
     </row>
@@ -1581,54 +1950,70 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 5,25</t>
+          <t>-12,82; 11,05</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 20,04</t>
+          <t>-17,04; 2,01</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 42,4</t>
+          <t>-19,69; 5,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-19,28; 181,16</t>
+          <t>-17,26; 18,87</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-22,17; 3,06</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-26,81; 9,6</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>80,91%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-10,95%</t>
         </is>
       </c>
     </row>
@@ -1641,22 +2026,32 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 2,58</t>
+          <t>-10,72; 9,62</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 0,79</t>
+          <t>2,13; 17,22</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 15,69</t>
+          <t>-15,29; 7,96</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 5,75</t>
+          <t>-46,14; 88,54</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 197,59</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-48,01; 53,01</t>
         </is>
       </c>
     </row>
@@ -1664,27 +2059,37 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-2,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1697,50 +2102,74 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 13,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 3,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-5,17%</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>-15,82%</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>-39,46%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>55,52%</t>
         </is>
       </c>
     </row>
@@ -1753,37 +2182,590 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 2,5</t>
+          <t>-15,65; 8,17</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0,62; 8,82</t>
+          <t>-14,56; 0,36</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 19,24</t>
+          <t>-5,84; 18,52</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>1,05; 65,2</t>
+          <t>-52,42; 57,89</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>-69,44; 4,32</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>-36,14; 276,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-6,08; 20,52</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 12,21</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-18,1; 10,96</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 41,29</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 19,53</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-23,37; 17,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-3,06</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>-23,79%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>-18,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 4,41</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 15,4</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-13,71; 7,66</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-56,4; 37,15</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-20,46; 136,11</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-59,81; 69,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-12,29%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>-16,27%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>8,5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 1,96</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 0,61</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,95; 5,79</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-31,21; 11,58</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-33,5; 4,38</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 39,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-3,41%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 8,97</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 2,23</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 7,76</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 14,83</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-9,28; 3,36</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 13,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>-17,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 2,53</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 8,61</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-8,46; 1,01</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-26,86; 18,91</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 64,81</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-36,03; 6,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
